--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_287.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_287.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,648 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_88</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.02948717948717949</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb:min7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2380952380952381</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:min7', 'C:7']]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.77, 7.96)]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.84, 16.56)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:00.740000', '0:00:21.500000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:01.620158', '0:00:13.055986')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1899350649350649</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3238636363636364</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
+          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.34, 16.08)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:15.320000', '0:00:17.860000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_49</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_72</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06333333333333332</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>[['G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(6.18, 24.58)]</t>
+          <t>[['Eb', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(55.8, 64.68)]</t>
+          <t>[('0:00:20.940758', '0:00:23.936132')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:08.700000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_67</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1164835164835165</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2916666666666666</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(65.3, 71.52)]</t>
+          <t>[['A:7', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(24.12, 27.0)]</t>
+          <t>[('0:00:05.500000', '0:00:10.400000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:43.926916', '0:00:50.765192')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G/3', 'C', 'G']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_0</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1513364779874214</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
+          <t>[('0:00:31.237210', '0:00:34.743424')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>[('0:01:00.436303', '0:01:14.066417')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1577922077922078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.38, 9.89)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1080745341614907</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(13.159, 16.555)]</t>
+          <t>[['G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(63.38, 65.22)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.800000', '0:02:25.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:59.182426', '0:01:06.310952')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.995918, 46.610521)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_22</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.04772727272727272</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.74, 72.5)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:02:30.200000', '0:02:34.940000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1602564102564102</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.607823)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.86, 14.56)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2589285714285714</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(43.88, 48.02)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.58, 29.34)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(142.14, 146.8)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02847260653016049</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.98, 13.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(44.74, 47.14)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
